--- a/Healthcare/Regeneron Pharmaceuticals.xlsx
+++ b/Healthcare/Regeneron Pharmaceuticals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4E2CA2-A4E9-E84D-8A00-D1F70F7C3FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F976858-A148-6640-AE3C-8F7AC371705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1550,7 +1550,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5579999999999996E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1689,9 +1689,9 @@
     <v>Powered by Refinitiv</v>
     <v>853.97</v>
     <v>668</v>
-    <v>0.1227</v>
-    <v>27.52</v>
-    <v>3.4780000000000005E-2</v>
+    <v>0.12740000000000001</v>
+    <v>-1.89</v>
+    <v>-2.3080000000000002E-3</v>
     <v>USD</v>
     <v>Regeneron Pharmaceuticals, Inc. is an integrated biotechnology company that discovers, invents, develops, manufactures, and commercializes medicines for serious diseases. The Company's commercialized medicines and product candidates in development are designed to help patients with eye diseases, allergic and inflammatory diseases, cancer, cardiovascular and metabolic diseases, pain, hematologic conditions, infectious diseases and rare diseases. It helps in accelerating and improving the traditional drug development process through its VelociSuite technologies, such as VelocImmune, which uses genetically humanized mice to produce optimized fully human antibodies and bispecific antibodies, and through research initiatives, such as Regeneron Genetics Center. It operates gene therapy programs targeting different forms of congenital, monogenic hearing loss. Its advanced clinical-stage candidate is DB-OTO, which is an investigational cell-selective, adeno-associated virus (AAV) gene therapy.</v>
     <v>11851</v>
@@ -1699,24 +1699,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>777 Old Saw Mill River Road, TARRYTOWN, NY, 10591 US</v>
-    <v>831.15</v>
+    <v>839.19780000000003</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45232.989548611113</v>
+    <v>45233.890552140627</v>
     <v>0</v>
-    <v>788.12130000000002</v>
-    <v>88886777973</v>
+    <v>811.92010000000005</v>
+    <v>88681620000</v>
     <v>REGENERON PHARMACEUTICALS, INC.</v>
     <v>REGENERON PHARMACEUTICALS, INC.</v>
-    <v>791.87</v>
-    <v>23.3581</v>
-    <v>791.27</v>
+    <v>838.16</v>
+    <v>23.306000000000001</v>
     <v>818.79</v>
+    <v>816.9</v>
     <v>108558700</v>
     <v>REGN</v>
     <v>REGENERON PHARMACEUTICALS, INC. (XNAS:REGN)</v>
-    <v>729416</v>
-    <v>396884</v>
+    <v>6</v>
+    <v>411261</v>
     <v>1988</v>
   </rv>
   <rv s="2">
@@ -2310,9 +2310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J196" sqref="J196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13815,7 +13815,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13832,7 +13832,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>88886777973</v>
+        <v>88681620000</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>201</v>
@@ -13860,7 +13860,7 @@
       </c>
       <c r="I3" s="39">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>190010431624.37271</v>
+        <v>209464158523.41284</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>205</v>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="I4" s="42">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>166613874034.48007</v>
+        <v>183801623340.8356</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>210</v>
@@ -13955,14 +13955,14 @@
       </c>
       <c r="I5" s="42">
         <f>I4+G5-G6</f>
-        <v>172839374034.48007</v>
+        <v>190027123340.8356</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="50" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>818.79</v>
+        <v>816.9</v>
       </c>
       <c r="L5" s="35" t="s">
         <v>218</v>
@@ -13980,7 +13980,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <f>O20/F10</f>
-        <v>6.939942065349781</v>
+        <v>6.9239241099312929</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>220</v>
@@ -14008,14 +14008,14 @@
       </c>
       <c r="I6" s="55">
         <f>N25</f>
-        <v>5.2193375415380217E-2</v>
+        <v>4.9667824015450626E-2</v>
       </c>
       <c r="J6" s="47" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>1592.5404888752917</v>
+        <v>1750.9082614729225</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>224</v>
@@ -14033,14 +14033,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="60">
         <f>O20/F12</f>
-        <v>18.31206797960445</v>
+        <v>18.269802224969098</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="62">
         <f>F14/A3</f>
-        <v>4.4326052646399258E-2</v>
+        <v>4.4428597492919053E-2</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>227</v>
@@ -14067,7 +14067,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>0.94499259746124364</v>
+        <v>1.1433569120735982</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>230</v>
@@ -14372,7 +14372,7 @@
       </c>
       <c r="O14" s="88">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5579999999999996E-2</v>
       </c>
       <c r="P14" s="41"/>
     </row>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="O15" s="92" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.1227</v>
+        <v>0.12740000000000001</v>
       </c>
       <c r="P15" s="41"/>
     </row>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>5.3075175000000002E-2</v>
+        <v>5.0474708E-2</v>
       </c>
       <c r="P17" s="41"/>
     </row>
@@ -14552,7 +14552,7 @@
       </c>
       <c r="O20" s="101" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>88886777973</v>
+        <v>88681620000</v>
       </c>
       <c r="P20" s="41"/>
     </row>
@@ -14574,7 +14574,7 @@
       </c>
       <c r="O21" s="101">
         <f>O19+O20</f>
-        <v>91588977973</v>
+        <v>91383820000</v>
       </c>
       <c r="P21" s="41"/>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="O22" s="102">
         <f>(O19/O21)</f>
-        <v>2.9503550097442901E-2</v>
+        <v>2.9569785986184424E-2</v>
       </c>
       <c r="P22" s="41"/>
     </row>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="O23" s="103">
         <f>O20/O21</f>
-        <v>0.97049644990255712</v>
+        <v>0.97043021401381557</v>
       </c>
       <c r="P23" s="41"/>
     </row>
@@ -14660,7 +14660,7 @@
       <c r="M25" s="79"/>
       <c r="N25" s="107">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>5.2193375415380217E-2</v>
+        <v>4.9667824015450626E-2</v>
       </c>
       <c r="O25" s="108"/>
       <c r="P25" s="41"/>

--- a/Healthcare/Regeneron Pharmaceuticals.xlsx
+++ b/Healthcare/Regeneron Pharmaceuticals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F976858-A148-6640-AE3C-8F7AC371705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8346620B-7000-9E44-AB00-98DD9E6ED8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>Projected Shares</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -975,6 +981,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1058,7 +1070,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1096,65 +1108,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1163,23 +1118,124 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,7 +1245,117 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1197,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1258,127 +1424,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="14" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1386,116 +1440,242 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="14" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="13" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1550,7 +1730,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5579999999999996E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1689,9 +1869,11 @@
     <v>Powered by Refinitiv</v>
     <v>853.97</v>
     <v>668</v>
-    <v>0.12740000000000001</v>
-    <v>-1.89</v>
-    <v>-2.3080000000000002E-3</v>
+    <v>0.12970000000000001</v>
+    <v>-22.53</v>
+    <v>-2.7382E-2</v>
+    <v>3.27</v>
+    <v>4.0860000000000002E-3</v>
     <v>USD</v>
     <v>Regeneron Pharmaceuticals, Inc. is an integrated biotechnology company that discovers, invents, develops, manufactures, and commercializes medicines for serious diseases. The Company's commercialized medicines and product candidates in development are designed to help patients with eye diseases, allergic and inflammatory diseases, cancer, cardiovascular and metabolic diseases, pain, hematologic conditions, infectious diseases and rare diseases. It helps in accelerating and improving the traditional drug development process through its VelociSuite technologies, such as VelocImmune, which uses genetically humanized mice to produce optimized fully human antibodies and bispecific antibodies, and through research initiatives, such as Regeneron Genetics Center. It operates gene therapy programs targeting different forms of congenital, monogenic hearing loss. Its advanced clinical-stage candidate is DB-OTO, which is an investigational cell-selective, adeno-associated virus (AAV) gene therapy.</v>
     <v>11851</v>
@@ -1699,24 +1881,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>777 Old Saw Mill River Road, TARRYTOWN, NY, 10591 US</v>
-    <v>839.19780000000003</v>
+    <v>816.68</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45233.890552140627</v>
+    <v>45240.018701191409</v>
     <v>0</v>
-    <v>811.92010000000005</v>
-    <v>88681620000</v>
+    <v>796.41</v>
+    <v>87185926220</v>
     <v>REGENERON PHARMACEUTICALS, INC.</v>
     <v>REGENERON PHARMACEUTICALS, INC.</v>
-    <v>838.16</v>
-    <v>23.306000000000001</v>
-    <v>818.79</v>
-    <v>816.9</v>
-    <v>108558700</v>
+    <v>815.49</v>
+    <v>22.831299999999999</v>
+    <v>822.79</v>
+    <v>800.26</v>
+    <v>803.53</v>
+    <v>108947000</v>
     <v>REGN</v>
     <v>REGENERON PHARMACEUTICALS, INC. (XNAS:REGN)</v>
-    <v>6</v>
-    <v>411261</v>
+    <v>622240</v>
+    <v>431995</v>
     <v>1988</v>
   </rv>
   <rv s="2">
@@ -1748,6 +1931,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1768,6 +1953,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1784,7 +1970,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1795,13 +1981,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1867,13 +2056,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1918,6 +2113,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1925,6 +2123,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2310,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
+    <sheetView topLeftCell="A177" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J196" sqref="J196"/>
     </sheetView>
@@ -13814,8 +14015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCC0D07-5308-774C-8142-5D902BF935F9}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13823,1695 +14024,1757 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="109" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="e" vm="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="109" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="A3" s="70" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>88681620000</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>87185926220</v>
+      </c>
+      <c r="B3" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="72">
         <f>Financials!O8*0.01</f>
         <v>0.86420000000000008</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="72">
         <f>SUM(C11:E11)/3</f>
         <v>0.243144731479633</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="74">
         <f>AVERAGE(Financials!K129:O129)</f>
         <v>-5.1770091837100018E-5</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>209464158523.41284</v>
-      </c>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="75">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>212477043801.31393</v>
+      </c>
+      <c r="J3" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="110" t="s">
+      <c r="K3" s="44">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="41"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="A4" s="77">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>6225500000</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="36">
         <f>Financials!O17*0.01</f>
         <v>0.34880000000000005</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>0.49875410557698263</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="80">
         <f>A5*(1+(5*G3))</f>
-        <v>108530599.53065641</v>
-      </c>
-      <c r="H4" s="47" t="s">
+        <v>108918799.01902312</v>
+      </c>
+      <c r="H4" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="I4" s="42">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>183801623340.8356</v>
-      </c>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="35">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>186463668595.58264</v>
+      </c>
+      <c r="J4" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="48">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="112" t="s">
+      <c r="K4" s="46" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>-2.7382E-2</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="113"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" cm="1">
+      <c r="A5" s="77" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>108558700</v>
-      </c>
-      <c r="B5" s="43" t="s">
+        <v>108947000</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="36">
         <f>Financials!O34*0.01</f>
         <v>0.33929999999999999</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="44">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="36">
+        <f>SUM(C16:E16)/3</f>
         <v>0.52762869783891775</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="80">
         <f>Financials!O56</f>
         <v>8927700000</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>190027123340.8356</v>
-      </c>
-      <c r="J5" s="45" t="s">
+        <v>192689168595.58264</v>
+      </c>
+      <c r="J5" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="50" cm="1">
+      <c r="K5" s="82" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>816.9</v>
-      </c>
-      <c r="L5" s="35" t="s">
+        <v>800.26</v>
+      </c>
+      <c r="L5" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="98">
         <f>Financials!O20</f>
         <v>69600000</v>
       </c>
-      <c r="P5" s="41"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
+      <c r="A6" s="84">
         <f>O20/F10</f>
-        <v>6.9239241099312929</v>
-      </c>
-      <c r="B6" s="43" t="s">
+        <v>6.8071460196752032</v>
+      </c>
+      <c r="B6" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="36">
         <f>Financials!O190</f>
         <v>0.22454435513148341</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="36">
         <f>Financials!O33/Financials!O126</f>
         <v>0.17899150217129725</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="80">
         <f>Financials!O96+Financials!O105</f>
         <v>2702200000</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="46">
         <f>N25</f>
-        <v>4.9667824015450626E-2</v>
-      </c>
-      <c r="J6" s="47" t="s">
+        <v>4.931803882226287E-2</v>
+      </c>
+      <c r="J6" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="85">
         <f>I5/G4</f>
-        <v>1750.9082614729225</v>
-      </c>
-      <c r="L6" s="57" t="s">
+        <v>1769.1084581453076</v>
+      </c>
+      <c r="L6" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="58" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="98">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
-      <c r="P6" s="41"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87">
         <f>O20/F12</f>
-        <v>18.269802224969098</v>
-      </c>
-      <c r="B7" s="61" t="s">
+        <v>17.961665887927481</v>
+      </c>
+      <c r="B7" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="62">
-        <f>F14/A3</f>
-        <v>4.4428597492919053E-2</v>
-      </c>
-      <c r="D7" s="63" t="s">
+      <c r="C7" s="89">
+        <f>F15/A3</f>
+        <v>4.5190779874931059E-2</v>
+      </c>
+      <c r="D7" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="90">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.12405829319501049</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="91">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.11250775463300289</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="93">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="95">
         <f>K6/K5-1</f>
-        <v>1.1433569120735982</v>
-      </c>
-      <c r="L7" s="70" t="s">
+        <v>1.210667105872226</v>
+      </c>
+      <c r="L7" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="58" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="98">
         <f>Financials!O105</f>
         <v>2702200000</v>
       </c>
-      <c r="P7" s="41"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="72" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O8" s="100">
         <f>O5/(O6+O7)</f>
         <v>2.5756790763081933E-2</v>
       </c>
-      <c r="P8" s="41"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53">
         <v>2019</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="53">
         <v>2020</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="53">
         <v>2021</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="54">
         <v>2022</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="38">
         <v>2023</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="39">
         <v>2024</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="39">
         <v>2025</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="39">
         <v>2026</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="55">
         <v>2027</v>
       </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="58" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="98">
         <f>Financials!O25</f>
         <v>476400000</v>
       </c>
-      <c r="P9" s="41"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="57">
         <v>7863400000</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="57">
         <v>8497100000</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="57">
         <v>16071700000</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="58">
         <v>12172900000</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="57">
         <v>12808000000</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="57">
         <v>13500000000</v>
       </c>
-      <c r="H10" s="81">
+      <c r="H10" s="57">
         <v>14040000000</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="57">
         <v>14378000000</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="58">
         <v>15662000000</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="58" t="s">
+      <c r="N10" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="98">
         <f>Financials!O24</f>
         <v>4775400000</v>
       </c>
-      <c r="P10" s="41"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85">
+      <c r="A11" s="60"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>8.058854948241212E-2</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="41">
         <f t="shared" si="0"/>
         <v>0.89143354791634799</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="41">
         <f t="shared" si="0"/>
         <v>-0.2425879029598611</v>
       </c>
-      <c r="F11" s="86">
+      <c r="F11" s="42">
         <f t="shared" si="0"/>
         <v>5.2173270132836125E-2</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="41">
         <f t="shared" si="0"/>
         <v>5.4028732042473493E-2</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="41">
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="41">
         <f t="shared" si="0"/>
         <v>2.4074074074074137E-2</v>
       </c>
-      <c r="J11" s="85">
+      <c r="J11" s="61">
         <f t="shared" si="0"/>
         <v>8.9303101961329734E-2</v>
       </c>
-      <c r="K11" s="87">
+      <c r="K11" s="61">
         <f>SUM(F11:J11)/5</f>
         <v>5.1915835642142708E-2</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="58" t="s">
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="88">
+      <c r="O11" s="101">
         <f>O9/O10</f>
         <v>9.9761276542279176E-2</v>
       </c>
-      <c r="P11" s="41"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="57">
         <v>2115800000</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="57">
         <v>3513200000</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="57">
         <v>8075300000</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="57">
         <v>4338400000</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="62">
         <v>4854000000</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="57">
         <v>4986000000</v>
       </c>
-      <c r="H12" s="81">
+      <c r="H12" s="57">
         <v>5203000000</v>
       </c>
-      <c r="I12" s="81">
+      <c r="I12" s="57">
         <v>5711000000</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="58">
         <v>6347000000</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="89" t="s">
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="O12" s="90">
+      <c r="O12" s="101">
         <f>O8*(1-O11)</f>
         <v>2.3187260436924494E-2</v>
       </c>
-      <c r="P12" s="41"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85">
+      <c r="A13" s="60"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.66045940069949904</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="41">
         <f t="shared" si="1"/>
         <v>1.2985597176363428</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="41">
         <f t="shared" si="1"/>
         <v>-0.46275680160489396</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="42">
         <f t="shared" si="1"/>
         <v>0.11884565738521125</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="41">
         <f t="shared" si="1"/>
         <v>2.7194066749072876E-2</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="41">
         <f t="shared" si="1"/>
         <v>4.3521861211391899E-2</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="41">
         <f t="shared" si="1"/>
         <v>9.7635979242744586E-2</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="61">
         <f t="shared" si="1"/>
         <v>0.11136403431973374</v>
       </c>
-      <c r="K13" s="87">
+      <c r="K13" s="61">
         <f>SUM(F13:J13)/5</f>
         <v>7.9712319781630875E-2</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="112" t="s">
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="115" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="113"/>
-      <c r="P13" s="41"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="49">
+        <f>B12/B10</f>
+        <v>0.26906935931022202</v>
+      </c>
+      <c r="C14" s="49">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.41345870944204494</v>
+      </c>
+      <c r="D14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.50245462521077422</v>
+      </c>
+      <c r="E14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.35639822885261524</v>
+      </c>
+      <c r="F14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.37898188632104934</v>
+      </c>
+      <c r="G14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.36933333333333335</v>
+      </c>
+      <c r="H14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.37058404558404556</v>
+      </c>
+      <c r="I14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.3972040617610238</v>
+      </c>
+      <c r="J14" s="51">
+        <f t="shared" si="2"/>
+        <v>0.40524837185544632</v>
+      </c>
+      <c r="K14" s="51"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="101">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.5080000000000002E-2</v>
+      </c>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B15" s="57">
         <v>2026704870</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C15" s="57">
         <v>2055961967</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D15" s="57">
         <v>6579016622</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E15" s="57">
         <v>2424237985</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F15" s="62">
         <v>3940000000</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G15" s="57">
         <v>4237000000</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H15" s="57">
         <v>4774000000</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I15" s="57">
         <v>4538000000</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J15" s="58">
         <v>5041000000</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="K15" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="O14" s="88">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5579999999999996E-2</v>
-      </c>
-      <c r="P14" s="41"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="O15" s="102" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="64"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>1.4435795479190716E-2</v>
       </c>
-      <c r="D15" s="85">
-        <f t="shared" si="2"/>
+      <c r="D16" s="41">
+        <f t="shared" si="3"/>
         <v>2.1999700031415999</v>
       </c>
-      <c r="E15" s="85">
-        <f t="shared" si="2"/>
+      <c r="E16" s="41">
+        <f t="shared" si="3"/>
         <v>-0.63151970510403732</v>
       </c>
-      <c r="F15" s="86">
-        <f t="shared" si="2"/>
+      <c r="F16" s="42">
+        <f t="shared" si="3"/>
         <v>0.62525297614293418</v>
       </c>
-      <c r="G15" s="85">
-        <f t="shared" si="2"/>
+      <c r="G16" s="41">
+        <f t="shared" si="3"/>
         <v>7.5380710659898487E-2</v>
       </c>
-      <c r="H15" s="85">
-        <f t="shared" si="2"/>
+      <c r="H16" s="41">
+        <f t="shared" si="3"/>
         <v>0.12674061836204853</v>
       </c>
-      <c r="I15" s="85">
-        <f t="shared" si="2"/>
+      <c r="I16" s="41">
+        <f t="shared" si="3"/>
         <v>-4.9434436531210713E-2</v>
       </c>
-      <c r="J15" s="85">
-        <f t="shared" si="2"/>
+      <c r="J16" s="61">
+        <f t="shared" si="3"/>
         <v>0.11084178052005278</v>
       </c>
-      <c r="K15" s="87">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="61">
+        <f>SUM(F16:J16)/5</f>
         <v>0.17775632983074466</v>
       </c>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="O15" s="92" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="P15" s="41"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="80" t="s">
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="O16" s="101">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="49">
+        <f>B15/B10</f>
+        <v>0.25773900221278329</v>
+      </c>
+      <c r="C17" s="49">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.24196042967600712</v>
+      </c>
+      <c r="D17" s="49">
+        <f t="shared" si="4"/>
+        <v>0.40935412072151672</v>
+      </c>
+      <c r="E17" s="51">
+        <f t="shared" si="4"/>
+        <v>0.19915040664098119</v>
+      </c>
+      <c r="F17" s="49">
+        <f t="shared" si="4"/>
+        <v>0.30762023735165522</v>
+      </c>
+      <c r="G17" s="49">
+        <f t="shared" si="4"/>
+        <v>0.31385185185185183</v>
+      </c>
+      <c r="H17" s="49">
+        <f t="shared" si="4"/>
+        <v>0.34002849002849</v>
+      </c>
+      <c r="I17" s="49">
+        <f t="shared" si="4"/>
+        <v>0.31562108777298653</v>
+      </c>
+      <c r="J17" s="51">
+        <f t="shared" si="4"/>
+        <v>0.32186183118375689</v>
+      </c>
+      <c r="K17" s="51"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="104">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>5.0127924000000004E-2</v>
+      </c>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="93">
+      <c r="B18" s="66">
         <v>0.1404105527127317</v>
       </c>
-      <c r="C16" s="93">
+      <c r="C18" s="66">
         <v>0.19549959915458057</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D18" s="66">
         <v>0.30241750119432853</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E18" s="66">
         <v>0.14358606730201567</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="O16" s="88">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="41"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="98" t="s">
-        <v>239</v>
-      </c>
-      <c r="O17" s="99">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>5.0474708E-2</v>
-      </c>
-      <c r="P17" s="41"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="112" t="s">
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="115" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="113"/>
-      <c r="P18" s="41"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="104" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Biotechnology &amp; Medical Research</v>
-      </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="114" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1988</v>
-      </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="58" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="101">
+      <c r="O19" s="105">
         <f>O6+O7</f>
         <v>2702200000</v>
       </c>
-      <c r="P19" s="41"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="104" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="105" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>87185926220</v>
+      </c>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="117" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Biotechnology &amp; Medical Research</v>
+      </c>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1988</v>
+      </c>
+      <c r="D21" s="118"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="105">
+        <f>O19+O20</f>
+        <v>89888126220</v>
+      </c>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="117" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Regeneron Pharmaceuticals, Inc. is an integrated biotechnology company that discovers, invents, develops, manufactures, and commercializes medicines for serious diseases. The Company's commercialized medicines and product candidates in development are designed to help patients with eye diseases, allergic and inflammatory diseases, cancer, cardiovascular and metabolic diseases, pain, hematologic conditions, infectious diseases and rare diseases. It helps in accelerating and improving the traditional drug development process through its VelociSuite technologies, such as VelocImmune, which uses genetically humanized mice to produce optimized fully human antibodies and bispecific antibodies, and through research initiatives, such as Regeneron Genetics Center. It operates gene therapy programs targeting different forms of congenital, monogenic hearing loss. Its advanced clinical-stage candidate is DB-OTO, which is an investigational cell-selective, adeno-associated virus (AAV) gene therapy.</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="101" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>88681620000</v>
-      </c>
-      <c r="P20" s="41"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="O21" s="101">
-        <f>O19+O20</f>
-        <v>91383820000</v>
-      </c>
-      <c r="P21" s="41"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="72" t="s">
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="102">
+      <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>2.9569785986184424E-2</v>
-      </c>
-      <c r="P22" s="41"/>
+        <v>3.0061812540027825E-2</v>
+      </c>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="98" t="s">
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="103">
+      <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.97043021401381557</v>
-      </c>
-      <c r="P23" s="41"/>
+        <v>0.96993818745997218</v>
+      </c>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="105" t="s">
+      <c r="A24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="106"/>
-      <c r="P24" s="41"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="107">
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>4.9667824015450626E-2</v>
-      </c>
-      <c r="O25" s="108"/>
-      <c r="P25" s="41"/>
+        <v>4.931803882226287E-2</v>
+      </c>
+      <c r="O25" s="111"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="79"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="79"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="79"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="79"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="79"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="79"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="79"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="79"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="79"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="79"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="79"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15519,8 +15782,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:REGN/explorer/revenue_proj" xr:uid="{8F58D2BD-F6FD-EC41-B07F-E023D660C293}"/>

--- a/Healthcare/Regeneron Pharmaceuticals.xlsx
+++ b/Healthcare/Regeneron Pharmaceuticals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8346620B-7000-9E44-AB00-98DD9E6ED8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4878D8FE-C8F8-7749-B3D9-E8710A957F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1730,7 +1730,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.3360000000000003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1869,11 +1869,11 @@
     <v>Powered by Refinitiv</v>
     <v>853.97</v>
     <v>668</v>
-    <v>0.12970000000000001</v>
-    <v>-22.53</v>
-    <v>-2.7382E-2</v>
-    <v>3.27</v>
-    <v>4.0860000000000002E-3</v>
+    <v>0.1231</v>
+    <v>7.45</v>
+    <v>9.299E-3</v>
+    <v>1.07</v>
+    <v>1.323E-3</v>
     <v>USD</v>
     <v>Regeneron Pharmaceuticals, Inc. is an integrated biotechnology company that discovers, invents, develops, manufactures, and commercializes medicines for serious diseases. The Company's commercialized medicines and product candidates in development are designed to help patients with eye diseases, allergic and inflammatory diseases, cancer, cardiovascular and metabolic diseases, pain, hematologic conditions, infectious diseases and rare diseases. It helps in accelerating and improving the traditional drug development process through its VelociSuite technologies, such as VelocImmune, which uses genetically humanized mice to produce optimized fully human antibodies and bispecific antibodies, and through research initiatives, such as Regeneron Genetics Center. It operates gene therapy programs targeting different forms of congenital, monogenic hearing loss. Its advanced clinical-stage candidate is DB-OTO, which is an investigational cell-selective, adeno-associated virus (AAV) gene therapy.</v>
     <v>11851</v>
@@ -1881,25 +1881,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>777 Old Saw Mill River Road, TARRYTOWN, NY, 10591 US</v>
-    <v>816.68</v>
+    <v>814.3</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45240.018701191409</v>
+    <v>45259.910661585156</v>
     <v>0</v>
-    <v>796.41</v>
-    <v>87185926220</v>
+    <v>800.24</v>
+    <v>88093454730</v>
     <v>REGENERON PHARMACEUTICALS, INC.</v>
     <v>REGENERON PHARMACEUTICALS, INC.</v>
-    <v>815.49</v>
-    <v>22.831299999999999</v>
-    <v>822.79</v>
-    <v>800.26</v>
-    <v>803.53</v>
+    <v>804.17</v>
+    <v>23.068999999999999</v>
+    <v>801.14</v>
+    <v>808.59</v>
+    <v>809.66</v>
     <v>108947000</v>
     <v>REGN</v>
     <v>REGENERON PHARMACEUTICALS, INC. (XNAS:REGN)</v>
-    <v>622240</v>
-    <v>431995</v>
+    <v>627657</v>
+    <v>470387</v>
     <v>1988</v>
   </rv>
   <rv s="2">
@@ -2064,9 +2064,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14015,8 +14015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCC0D07-5308-774C-8142-5D902BF935F9}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14033,7 +14033,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="70" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>87185926220</v>
+        <v>88093454730</v>
       </c>
       <c r="B3" s="71" t="s">
         <v>201</v>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="I3" s="75">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>212477043801.31393</v>
+        <v>228492665034.94724</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>205</v>
@@ -14111,14 +14111,14 @@
       </c>
       <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>186463668595.58264</v>
+        <v>200614711439.4223</v>
       </c>
       <c r="J4" s="79" t="s">
         <v>210</v>
       </c>
       <c r="K4" s="46" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.7382E-2</v>
+        <v>9.299E-3</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>250</v>
@@ -14161,14 +14161,14 @@
       </c>
       <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>192689168595.58264</v>
+        <v>206840211439.4223</v>
       </c>
       <c r="J5" s="79" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="82" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>800.26</v>
+        <v>808.59</v>
       </c>
       <c r="L5" s="83" t="s">
         <v>218</v>
@@ -14186,7 +14186,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="84">
         <f>O20/F10</f>
-        <v>6.8071460196752032</v>
+        <v>6.8780023992816988</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>220</v>
@@ -14214,14 +14214,14 @@
       </c>
       <c r="I6" s="46">
         <f>N25</f>
-        <v>4.931803882226287E-2</v>
+        <v>4.76135267808694E-2</v>
       </c>
       <c r="J6" s="79" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="85">
         <f>I5/G4</f>
-        <v>1769.1084581453076</v>
+        <v>1899.0313270282827</v>
       </c>
       <c r="L6" s="86" t="s">
         <v>224</v>
@@ -14239,14 +14239,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87">
         <f>O20/F12</f>
-        <v>17.961665887927481</v>
+        <v>18.148630970333745</v>
       </c>
       <c r="B7" s="88" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="89">
         <f>F15/A3</f>
-        <v>4.5190779874931059E-2</v>
+        <v>4.4725229724226524E-2</v>
       </c>
       <c r="D7" s="88" t="s">
         <v>227</v>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="K7" s="95">
         <f>K6/K5-1</f>
-        <v>1.210667105872226</v>
+        <v>1.3485713736606719</v>
       </c>
       <c r="L7" s="96" t="s">
         <v>230</v>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="O14" s="101">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.3360000000000003E-2</v>
       </c>
       <c r="P14" s="34"/>
     </row>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="O15" s="102" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.12970000000000001</v>
+        <v>0.1231</v>
       </c>
       <c r="P15" s="34"/>
     </row>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>5.0127924000000004E-2</v>
+        <v>4.8362784000000006E-2</v>
       </c>
       <c r="P17" s="34"/>
     </row>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>87185926220</v>
+        <v>88093454730</v>
       </c>
       <c r="P20" s="34"/>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>89888126220</v>
+        <v>90795654730</v>
       </c>
       <c r="P21" s="34"/>
     </row>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>3.0061812540027825E-2</v>
+        <v>2.9761336134813507E-2</v>
       </c>
       <c r="P22" s="34"/>
     </row>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.96993818745997218</v>
+        <v>0.97023866386518653</v>
       </c>
       <c r="P23" s="34"/>
     </row>
@@ -14924,7 +14924,7 @@
       <c r="M25" s="40"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>4.931803882226287E-2</v>
+        <v>4.76135267808694E-2</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="34"/>

--- a/Healthcare/Regeneron Pharmaceuticals.xlsx
+++ b/Healthcare/Regeneron Pharmaceuticals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4878D8FE-C8F8-7749-B3D9-E8710A957F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E6811E-B009-5F47-9E1E-C339745B46D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1449,9 +1449,6 @@
     <xf numFmtId="9" fontId="3" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1674,7 +1671,10 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1708,11 +1708,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1730,7 +1733,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1742,6 +1745,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1869,11 +1875,11 @@
     <v>Powered by Refinitiv</v>
     <v>853.97</v>
     <v>668</v>
-    <v>0.1231</v>
-    <v>7.45</v>
-    <v>9.299E-3</v>
-    <v>1.07</v>
-    <v>1.323E-3</v>
+    <v>0.14699999999999999</v>
+    <v>-9.0399999999999991</v>
+    <v>-1.0645999999999999E-2</v>
+    <v>1.76</v>
+    <v>2.0950000000000001E-3</v>
     <v>USD</v>
     <v>Regeneron Pharmaceuticals, Inc. is an integrated biotechnology company that discovers, invents, develops, manufactures, and commercializes medicines for serious diseases. The Company's commercialized medicines and product candidates in development are designed to help patients with eye diseases, allergic and inflammatory diseases, cancer, cardiovascular and metabolic diseases, pain, hematologic conditions, infectious diseases and rare diseases. It helps in accelerating and improving the traditional drug development process through its VelociSuite technologies, such as VelocImmune, which uses genetically humanized mice to produce optimized fully human antibodies and bispecific antibodies, and through research initiatives, such as Regeneron Genetics Center. It operates gene therapy programs targeting different forms of congenital, monogenic hearing loss. Its advanced clinical-stage candidate is DB-OTO, which is an investigational cell-selective, adeno-associated virus (AAV) gene therapy.</v>
     <v>11851</v>
@@ -1881,25 +1887,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>777 Old Saw Mill River Road, TARRYTOWN, NY, 10591 US</v>
-    <v>814.3</v>
+    <v>848.02</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45259.910661585156</v>
+    <v>45269.037892441404</v>
     <v>0</v>
-    <v>800.24</v>
-    <v>88093454730</v>
+    <v>839.55</v>
+    <v>91530732580</v>
     <v>REGENERON PHARMACEUTICALS, INC.</v>
     <v>REGENERON PHARMACEUTICALS, INC.</v>
-    <v>804.17</v>
-    <v>23.068999999999999</v>
-    <v>801.14</v>
-    <v>808.59</v>
-    <v>809.66</v>
+    <v>844.33</v>
+    <v>24.227</v>
+    <v>849.18</v>
+    <v>840.14</v>
+    <v>841.9</v>
     <v>108947000</v>
     <v>REGN</v>
     <v>REGENERON PHARMACEUTICALS, INC. (XNAS:REGN)</v>
-    <v>627657</v>
-    <v>470387</v>
+    <v>388118</v>
+    <v>528038</v>
     <v>1988</v>
   </rv>
   <rv s="2">
@@ -2064,9 +2070,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14016,7 +14022,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14024,265 +14030,265 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="e" vm="1">
+    <row r="1" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" cm="1">
+      <c r="A3" s="69" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>88093454730</v>
-      </c>
-      <c r="B3" s="71" t="s">
+        <v>91530732580</v>
+      </c>
+      <c r="B3" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="71">
         <f>Financials!O8*0.01</f>
         <v>0.86420000000000008</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="71">
         <f>SUM(C11:E11)/3</f>
         <v>0.243144731479633</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="73">
         <f>AVERAGE(Financials!K129:O129)</f>
         <v>-5.1770091837100018E-5</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="74">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>228492665034.94724</v>
-      </c>
-      <c r="J3" s="76" t="s">
+        <v>236987532155.74127</v>
+      </c>
+      <c r="J3" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="43">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="44" t="s">
         <v>211</v>
       </c>
       <c r="M3" s="34"/>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="114"/>
+      <c r="O3" s="113"/>
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77">
+      <c r="A4" s="76">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>6225500000</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="36">
         <f>Financials!O17*0.01</f>
         <v>0.34880000000000005</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="77" t="s">
         <v>208</v>
       </c>
       <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>0.49875410557698263</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="80">
+      <c r="G4" s="79">
         <f>A5*(1+(5*G3))</f>
         <v>108918799.01902312</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="78" t="s">
         <v>249</v>
       </c>
       <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>200614711439.4223</v>
-      </c>
-      <c r="J4" s="79" t="s">
+        <v>208120818756.36734</v>
+      </c>
+      <c r="J4" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="46" cm="1">
+      <c r="K4" s="45" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>9.299E-3</v>
-      </c>
-      <c r="L4" s="47" t="s">
+        <v>-1.0645999999999999E-2</v>
+      </c>
+      <c r="L4" s="46" t="s">
         <v>250</v>
       </c>
       <c r="M4" s="34"/>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="116"/>
+      <c r="O4" s="115"/>
       <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" cm="1">
+      <c r="A5" s="76" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>108947000</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>213</v>
       </c>
       <c r="C5" s="36">
         <f>Financials!O34*0.01</f>
         <v>0.33929999999999999</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="80" t="s">
         <v>214</v>
       </c>
       <c r="E5" s="36">
         <f>SUM(C16:E16)/3</f>
         <v>0.52762869783891775</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="79">
         <f>Financials!O56</f>
         <v>8927700000</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="78" t="s">
         <v>216</v>
       </c>
       <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>206840211439.4223</v>
-      </c>
-      <c r="J5" s="79" t="s">
+        <v>214346318756.36734</v>
+      </c>
+      <c r="J5" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="82" cm="1">
+      <c r="K5" s="81" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>808.59</v>
-      </c>
-      <c r="L5" s="83" t="s">
+        <v>840.14</v>
+      </c>
+      <c r="L5" s="82" t="s">
         <v>218</v>
       </c>
       <c r="M5" s="34"/>
-      <c r="N5" s="97" t="s">
+      <c r="N5" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="98">
+      <c r="O5" s="97">
         <f>Financials!O20</f>
         <v>69600000</v>
       </c>
       <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84">
+      <c r="A6" s="83">
         <f>O20/F10</f>
-        <v>6.8780023992816988</v>
-      </c>
-      <c r="B6" s="78" t="s">
+        <v>7.1463720003123052</v>
+      </c>
+      <c r="B6" s="77" t="s">
         <v>220</v>
       </c>
       <c r="C6" s="36">
         <f>Financials!O190</f>
         <v>0.22454435513148341</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="80" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="36">
         <f>Financials!O33/Financials!O126</f>
         <v>0.17899150217129725</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="79">
         <f>Financials!O96+Financials!O105</f>
         <v>2702200000</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="45">
         <f>N25</f>
-        <v>4.76135267808694E-2</v>
-      </c>
-      <c r="J6" s="79" t="s">
+        <v>4.6802940234865954E-2</v>
+      </c>
+      <c r="J6" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="84">
         <f>I5/G4</f>
-        <v>1899.0313270282827</v>
-      </c>
-      <c r="L6" s="86" t="s">
+        <v>1967.946035825559</v>
+      </c>
+      <c r="L6" s="85" t="s">
         <v>224</v>
       </c>
       <c r="M6" s="34"/>
-      <c r="N6" s="97" t="s">
+      <c r="N6" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="98">
+      <c r="O6" s="97">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
       <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87">
+      <c r="A7" s="86">
         <f>O20/F12</f>
-        <v>18.148630970333745</v>
-      </c>
-      <c r="B7" s="88" t="s">
+        <v>18.856764025545942</v>
+      </c>
+      <c r="B7" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="88">
         <f>F15/A3</f>
-        <v>4.4725229724226524E-2</v>
-      </c>
-      <c r="D7" s="88" t="s">
+        <v>4.3045651323246517E-2</v>
+      </c>
+      <c r="D7" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="89">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.12405829319501049</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="91">
+      <c r="G7" s="90">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.11250775463300289</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="93">
+      <c r="I7" s="92">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="95">
+      <c r="K7" s="94">
         <f>K6/K5-1</f>
-        <v>1.3485713736606719</v>
-      </c>
-      <c r="L7" s="96" t="s">
+        <v>1.3424024993757695</v>
+      </c>
+      <c r="L7" s="95" t="s">
         <v>230</v>
       </c>
       <c r="M7" s="34"/>
-      <c r="N7" s="97" t="s">
+      <c r="N7" s="96" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="98">
+      <c r="O7" s="97">
         <f>Financials!O105</f>
         <v>2702200000</v>
       </c>
@@ -14302,27 +14308,27 @@
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="99" t="s">
+      <c r="N8" s="98" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="100">
+      <c r="O8" s="99">
         <f>O5/(O6+O7)</f>
         <v>2.5756790763081933E-2</v>
       </c>
       <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52">
         <v>2019</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="52">
         <v>2020</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <v>2021</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <v>2022</v>
       </c>
       <c r="F9" s="38">
@@ -14337,66 +14343,66 @@
       <c r="I9" s="39">
         <v>2026</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="54">
         <v>2027</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
-      <c r="N9" s="97" t="s">
+      <c r="N9" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="O9" s="98">
+      <c r="O9" s="97">
         <f>Financials!O25</f>
         <v>476400000</v>
       </c>
       <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>7863400000</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="56">
         <v>8497100000</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="56">
         <v>16071700000</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="57">
         <v>12172900000</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="56">
         <v>12808000000</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="56">
         <v>13500000000</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="56">
         <v>14040000000</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="56">
         <v>14378000000</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="57">
         <v>15662000000</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="97" t="s">
+      <c r="N10" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="O10" s="98">
+      <c r="O10" s="97">
         <f>Financials!O24</f>
         <v>4775400000</v>
       </c>
       <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
@@ -14426,72 +14432,72 @@
         <f t="shared" si="0"/>
         <v>2.4074074074074137E-2</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="60">
         <f t="shared" si="0"/>
         <v>8.9303101961329734E-2</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="60">
         <f>SUM(F11:J11)/5</f>
         <v>5.1915835642142708E-2</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
-      <c r="N11" s="97" t="s">
+      <c r="N11" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="101">
+      <c r="O11" s="100">
         <f>O9/O10</f>
         <v>9.9761276542279176E-2</v>
       </c>
       <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>2115800000</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="56">
         <v>3513200000</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="56">
         <v>8075300000</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="56">
         <v>4338400000</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="61">
         <v>4854000000</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="56">
         <v>4986000000</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="56">
         <v>5203000000</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="56">
         <v>5711000000</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="57">
         <v>6347000000</v>
       </c>
-      <c r="K12" s="63" t="s">
+      <c r="K12" s="62" t="s">
         <v>237</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
-      <c r="N12" s="97" t="s">
+      <c r="N12" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="O12" s="101">
+      <c r="O12" s="100">
         <f>O8*(1-O11)</f>
         <v>2.3187260436924494E-2</v>
       </c>
       <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
@@ -14521,121 +14527,121 @@
         <f t="shared" si="1"/>
         <v>9.7635979242744586E-2</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="60">
         <f t="shared" si="1"/>
         <v>0.11136403431973374</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="60">
         <f>SUM(F13:J13)/5</f>
         <v>7.9712319781630875E-2</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
-      <c r="N13" s="115" t="s">
+      <c r="N13" s="114" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="116"/>
+      <c r="O13" s="115"/>
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="48">
         <f>B12/B10</f>
         <v>0.26906935931022202</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="48">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>0.41345870944204494</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="48">
         <f t="shared" si="2"/>
         <v>0.50245462521077422</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="48">
         <f t="shared" si="2"/>
         <v>0.35639822885261524</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="49">
         <f t="shared" si="2"/>
         <v>0.37898188632104934</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="48">
         <f t="shared" si="2"/>
         <v>0.36933333333333335</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="48">
         <f t="shared" si="2"/>
         <v>0.37058404558404556</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="48">
         <f t="shared" si="2"/>
         <v>0.3972040617610238</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="50">
         <f t="shared" si="2"/>
         <v>0.40524837185544632</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="O14" s="101">
+      <c r="O14" s="100">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="56">
         <v>2026704870</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="56">
         <v>2055961967</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="56">
         <v>6579016622</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="56">
         <v>2424237985</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="61">
         <v>3940000000</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="56">
         <v>4237000000</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="56">
         <v>4774000000</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="56">
         <v>4538000000</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="57">
         <v>5041000000</v>
       </c>
-      <c r="K15" s="63" t="s">
+      <c r="K15" s="62" t="s">
         <v>240</v>
       </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
-      <c r="N15" s="97" t="s">
+      <c r="N15" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="O15" s="102" cm="1">
+      <c r="O15" s="101" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.1231</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="P15" s="34"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -14665,104 +14671,104 @@
         <f t="shared" si="3"/>
         <v>-4.9434436531210713E-2</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="60">
         <f t="shared" si="3"/>
         <v>0.11084178052005278</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="60">
         <f>SUM(F16:J16)/5</f>
         <v>0.17775632983074466</v>
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="97" t="s">
+      <c r="N16" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="O16" s="101">
+      <c r="O16" s="100">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="48">
         <f>B15/B10</f>
         <v>0.25773900221278329</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="48">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>0.24196042967600712</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="48">
         <f t="shared" si="4"/>
         <v>0.40935412072151672</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="50">
         <f t="shared" si="4"/>
         <v>0.19915040664098119</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="48">
         <f t="shared" si="4"/>
         <v>0.30762023735165522</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="48">
         <f t="shared" si="4"/>
         <v>0.31385185185185183</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="48">
         <f t="shared" si="4"/>
         <v>0.34002849002849</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="48">
         <f t="shared" si="4"/>
         <v>0.31562108777298653</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="50">
         <f t="shared" si="4"/>
         <v>0.32186183118375689</v>
       </c>
-      <c r="K17" s="51"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
-      <c r="N17" s="103" t="s">
+      <c r="N17" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="O17" s="104">
+      <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>4.8362784000000006E-2</v>
+        <v>4.7500130000000002E-2</v>
       </c>
       <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="65">
         <v>0.1404105527127317</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="65">
         <v>0.19549959915458057</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="65">
         <v>0.30241750119432853</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="65">
         <v>0.14358606730201567</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="115" t="s">
+      <c r="N18" s="114" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="116"/>
+      <c r="O18" s="115"/>
       <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -14779,10 +14785,10 @@
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
-      <c r="N19" s="97" t="s">
+      <c r="N19" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="105">
+      <c r="O19" s="104">
         <f>O6+O7</f>
         <v>2702200000</v>
       </c>
@@ -14802,12 +14808,12 @@
       <c r="K20" s="40"/>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="97" t="s">
+      <c r="N20" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="105" cm="1">
+      <c r="O20" s="104" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>88093454730</v>
+        <v>91530732580</v>
       </c>
       <c r="P20" s="34"/>
     </row>
@@ -14817,12 +14823,12 @@
         <v>Biotechnology &amp; Medical Research</v>
       </c>
       <c r="B21" s="117"/>
-      <c r="C21" s="118" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1988</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="43"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
@@ -14830,24 +14836,24 @@
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="M21" s="40"/>
-      <c r="N21" s="97" t="s">
+      <c r="N21" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="O21" s="105">
+      <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>90795654730</v>
+        <v>94232932580</v>
       </c>
       <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="117" t="str" cm="1">
+      <c r="A22" s="116" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Regeneron Pharmaceuticals, Inc. is an integrated biotechnology company that discovers, invents, develops, manufactures, and commercializes medicines for serious diseases. The Company's commercialized medicines and product candidates in development are designed to help patients with eye diseases, allergic and inflammatory diseases, cancer, cardiovascular and metabolic diseases, pain, hematologic conditions, infectious diseases and rare diseases. It helps in accelerating and improving the traditional drug development process through its VelociSuite technologies, such as VelocImmune, which uses genetically humanized mice to produce optimized fully human antibodies and bispecific antibodies, and through research initiatives, such as Regeneron Genetics Center. It operates gene therapy programs targeting different forms of congenital, monogenic hearing loss. Its advanced clinical-stage candidate is DB-OTO, which is an investigational cell-selective, adeno-associated virus (AAV) gene therapy.</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -14856,21 +14862,21 @@
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="99" t="s">
+      <c r="N22" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="106">
+      <c r="O22" s="105">
         <f>(O19/O21)</f>
-        <v>2.9761336134813507E-2</v>
+        <v>2.8675749825634898E-2</v>
       </c>
       <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -14879,21 +14885,21 @@
       <c r="K23" s="40"/>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
-      <c r="N23" s="103" t="s">
+      <c r="N23" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="107">
+      <c r="O23" s="106">
         <f>O20/O21</f>
-        <v>0.97023866386518653</v>
+        <v>0.97132425017436508</v>
       </c>
       <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -14902,18 +14908,18 @@
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="108" t="s">
+      <c r="N24" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="109"/>
+      <c r="O24" s="108"/>
       <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="117"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -14922,19 +14928,19 @@
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="110">
+      <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>4.76135267808694E-2</v>
-      </c>
-      <c r="O25" s="111"/>
+        <v>4.6802940234865954E-2</v>
+      </c>
+      <c r="O25" s="110"/>
       <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="117"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -14948,11 +14954,11 @@
       <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
@@ -14966,11 +14972,11 @@
       <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="117"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -14984,11 +14990,11 @@
       <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="117"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -15002,11 +15008,11 @@
       <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
@@ -15782,9 +15788,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:REGN/explorer/revenue_proj" xr:uid="{8F58D2BD-F6FD-EC41-B07F-E023D660C293}"/>
